--- a/skeleton -LU 25.07.2024 (1).xlsx
+++ b/skeleton -LU 25.07.2024 (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shree\Desktop\solar_heyday\heyday3.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2EF741-170A-4584-BA03-3812FCD695C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49841A7-7A6B-4ED6-BF19-748408B6560A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -244,7 +244,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +256,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -340,7 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -389,6 +396,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -801,13 +809,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0504D71-6005-497C-A674-888E1E52147B}">
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" workbookViewId="0">
+      <selection activeCell="V42" sqref="V42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="15" width="3.6640625" customWidth="1"/>
+    <col min="1" max="2" width="3.6640625" customWidth="1"/>
+    <col min="3" max="3" width="43" customWidth="1"/>
+    <col min="4" max="4" width="48.44140625" customWidth="1"/>
+    <col min="5" max="15" width="3.6640625" customWidth="1"/>
     <col min="20" max="20" width="13.77734375" customWidth="1"/>
     <col min="21" max="21" width="17.77734375" customWidth="1"/>
   </cols>
@@ -869,6 +880,9 @@
       <c r="C9" t="s">
         <v>32</v>
       </c>
+      <c r="T9" t="s">
+        <v>68</v>
+      </c>
       <c r="U9" s="17"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -880,28 +894,28 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="D11" t="s">
+      <c r="D11" s="18" t="s">
         <v>36</v>
       </c>
       <c r="U11" s="17"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="D12" t="s">
+      <c r="D12" s="18" t="s">
         <v>37</v>
       </c>
       <c r="U12" s="17"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="D13" t="s">
+      <c r="D13" s="18" t="s">
         <v>38</v>
       </c>
       <c r="U13" s="17"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="D14" t="s">
+      <c r="D14" s="18" t="s">
         <v>39</v>
       </c>
       <c r="U14" s="17"/>
@@ -926,21 +940,21 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="D18" t="s">
+      <c r="D18" s="18" t="s">
         <v>59</v>
       </c>
       <c r="U18" s="17"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="D19" t="s">
+      <c r="D19" s="18" t="s">
         <v>60</v>
       </c>
       <c r="U19" s="17"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="D20" t="s">
+      <c r="D20" s="18" t="s">
         <v>61</v>
       </c>
       <c r="U20" s="17"/>
@@ -958,21 +972,21 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="D23" t="s">
+      <c r="D23" s="18" t="s">
         <v>62</v>
       </c>
       <c r="U23" s="17"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="D24" t="s">
+      <c r="D24" s="18" t="s">
         <v>63</v>
       </c>
       <c r="U24" s="17"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-      <c r="D25" t="s">
+      <c r="D25" s="18" t="s">
         <v>64</v>
       </c>
       <c r="U25" s="17"/>
@@ -985,9 +999,6 @@
       <c r="A27" s="2"/>
       <c r="C27" t="s">
         <v>41</v>
-      </c>
-      <c r="T27" t="s">
-        <v>68</v>
       </c>
       <c r="U27" s="17"/>
     </row>
@@ -1106,6 +1117,7 @@
     <mergeCell ref="U36:U41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/skeleton -LU 25.07.2024 (1).xlsx
+++ b/skeleton -LU 25.07.2024 (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shree\Desktop\solar_heyday\heyday3.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\heydaysolar3\heyday3.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49841A7-7A6B-4ED6-BF19-748408B6560A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AD5E54-B523-47D4-BA11-24BD3F03390E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home page" sheetId="1" r:id="rId1"/>
@@ -378,6 +378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -396,7 +397,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -684,38 +684,38 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" ht="36.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
       <c r="E1" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:5" ht="36.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -732,14 +732,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -756,7 +756,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -771,7 +771,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -784,7 +784,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="2" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>29</v>
       </c>
@@ -809,73 +809,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0504D71-6005-497C-A674-888E1E52147B}">
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" workbookViewId="0">
-      <selection activeCell="V42" sqref="V42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="3.6640625" customWidth="1"/>
+    <col min="1" max="2" width="3.7109375" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="48.44140625" customWidth="1"/>
-    <col min="5" max="15" width="3.6640625" customWidth="1"/>
-    <col min="20" max="20" width="13.77734375" customWidth="1"/>
-    <col min="21" max="21" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" customWidth="1"/>
+    <col min="5" max="15" width="3.7109375" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="U1" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="16"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="U2" s="17"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="C3" t="s">
+      <c r="C3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="U3" s="16"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="U3" s="17"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="C4" t="s">
+      <c r="C4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="U4" s="16"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="U4" s="17"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="C5" t="s">
+      <c r="C5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="16"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="U5" s="17"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="U7" s="17" t="s">
+      <c r="U7" s="18" t="s">
         <v>67</v>
       </c>
       <c r="V7" s="10"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="U8" s="17"/>
-    </row>
-    <row r="9" spans="1:22" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U8" s="18"/>
+    </row>
+    <row r="9" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="C9" t="s">
         <v>32</v>
@@ -883,230 +883,232 @@
       <c r="T9" t="s">
         <v>68</v>
       </c>
-      <c r="U9" s="17"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="U9" s="18"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="D10" t="s">
         <v>19</v>
       </c>
-      <c r="U10" s="17"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="U10" s="18"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="U11" s="17"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="U11" s="18"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="U12" s="17"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="U12" s="18"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="U13" s="17"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="U13" s="18"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="U14" s="17"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="U14" s="18"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="U15" s="17"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="U15" s="18"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="C16" t="s">
         <v>40</v>
       </c>
-      <c r="U16" s="17"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U16" s="18"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="D17" t="s">
         <v>58</v>
       </c>
-      <c r="U17" s="17"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U17" s="18"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="U18" s="17"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U18" s="18"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="U19" s="17"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U19" s="18"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="U20" s="17"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U20" s="18"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="U21" s="17"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U21" s="18"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="D22" t="s">
         <v>57</v>
       </c>
-      <c r="U22" s="17"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U22" s="18"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="U23" s="17"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U23" s="18"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="U24" s="17"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U24" s="18"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="U25" s="17"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U25" s="18"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="U26" s="17"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U26" s="18"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="C27" t="s">
         <v>41</v>
       </c>
-      <c r="U27" s="17"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U27" s="18"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="D28" t="s">
+      <c r="D28" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="U28" s="17"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U28" s="18"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="D29" t="s">
+      <c r="D29" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="U29" s="17"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U29" s="18"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="U31" s="17" t="s">
+      <c r="U31" s="18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" t="s">
         <v>48</v>
       </c>
-      <c r="U32" s="17"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U32" s="18"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" t="s">
         <v>49</v>
       </c>
-      <c r="U33" s="17"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U33" s="18"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" t="s">
         <v>50</v>
       </c>
-      <c r="U34" s="17"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U34" s="18"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="U35" s="9"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="U36" s="17" t="s">
+      <c r="U36" s="18" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" t="s">
         <v>43</v>
       </c>
-      <c r="U37" s="17"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C37" s="12"/>
+      <c r="U37" s="18"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="C38" t="s">
+      <c r="C38" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="U38" s="17"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U38" s="18"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="C39" t="s">
+      <c r="C39" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="U39" s="17"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U39" s="18"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>44</v>
       </c>
-      <c r="U40" s="17"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C41" t="s">
+      <c r="C40" s="12"/>
+      <c r="U40" s="18"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C41" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="U41" s="17"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U41" s="18"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U43" s="2"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U44" s="2"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U46" s="2"/>
     </row>
   </sheetData>
@@ -1129,63 +1131,63 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="17" width="3.6640625" customWidth="1"/>
+    <col min="1" max="17" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
     </row>
-    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
     </row>
-    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
     </row>
-    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
     </row>
-    <row r="8" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
     </row>
-    <row r="9" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
     </row>
-    <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
     </row>
-    <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
     </row>
-    <row r="13" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
     </row>
-    <row r="14" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
     </row>
-    <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
     </row>
-    <row r="16" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
@@ -1203,12 +1205,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
@@ -1226,63 +1228,63 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.77734375" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" customWidth="1"/>
-    <col min="4" max="4" width="5.77734375" customWidth="1"/>
-    <col min="5" max="5" width="4.21875" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="2.77734375" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -1300,37 +1302,37 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.21875" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>24</v>
       </c>
@@ -1348,14 +1350,14 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
     <col min="9" max="9" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1366,7 +1368,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>

--- a/skeleton -LU 25.07.2024 (1).xlsx
+++ b/skeleton -LU 25.07.2024 (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\heydaysolar3\heyday3.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AD5E54-B523-47D4-BA11-24BD3F03390E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166A4B56-3786-4F99-B6C4-B0C63CC8A4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -809,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0504D71-6005-497C-A674-888E1E52147B}">
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:C41"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="90" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/skeleton -LU 25.07.2024 (1).xlsx
+++ b/skeleton -LU 25.07.2024 (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\heydaysolar3\heyday3.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shree\Desktop\solar_heyday\heyday3.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166A4B56-3786-4F99-B6C4-B0C63CC8A4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD7DC62-E548-46BD-AC3A-CDCB891CB9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home page" sheetId="1" r:id="rId1"/>
@@ -684,16 +684,16 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
@@ -706,7 +706,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="36.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
       <c r="B2" s="13" t="s">
         <v>17</v>
@@ -715,7 +715,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -732,14 +732,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -756,7 +756,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -771,7 +771,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -784,7 +784,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="2" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>29</v>
       </c>
@@ -809,21 +809,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0504D71-6005-497C-A674-888E1E52147B}">
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="90" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="3.7109375" customWidth="1"/>
+    <col min="1" max="2" width="3.6640625" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="48.42578125" customWidth="1"/>
-    <col min="5" max="15" width="3.7109375" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="48.44140625" customWidth="1"/>
+    <col min="5" max="15" width="3.6640625" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" customWidth="1"/>
+    <col min="21" max="21" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -831,38 +831,38 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="U2" s="17"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="C3" s="12" t="s">
         <v>35</v>
       </c>
       <c r="U3" s="17"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="C4" s="12" t="s">
         <v>34</v>
       </c>
       <c r="U4" s="17"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="C5" s="12" t="s">
         <v>33</v>
       </c>
       <c r="U5" s="17"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -871,11 +871,11 @@
       </c>
       <c r="V7" s="10"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="U8" s="18"/>
     </row>
-    <row r="9" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="C9" t="s">
         <v>32</v>
@@ -885,142 +885,142 @@
       </c>
       <c r="U9" s="18"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="D10" t="s">
         <v>19</v>
       </c>
       <c r="U10" s="18"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="D11" s="12" t="s">
         <v>36</v>
       </c>
       <c r="U11" s="18"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="D12" s="12" t="s">
         <v>37</v>
       </c>
       <c r="U12" s="18"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="D13" s="12" t="s">
         <v>38</v>
       </c>
       <c r="U13" s="18"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="D14" s="12" t="s">
         <v>39</v>
       </c>
       <c r="U14" s="18"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="U15" s="18"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="C16" t="s">
         <v>40</v>
       </c>
       <c r="U16" s="18"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="D17" t="s">
         <v>58</v>
       </c>
       <c r="U17" s="18"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="D18" s="12" t="s">
         <v>59</v>
       </c>
       <c r="U18" s="18"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="D19" s="12" t="s">
         <v>60</v>
       </c>
       <c r="U19" s="18"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="D20" s="12" t="s">
         <v>61</v>
       </c>
       <c r="U20" s="18"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="U21" s="18"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="D22" t="s">
         <v>57</v>
       </c>
       <c r="U22" s="18"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="D23" s="12" t="s">
         <v>62</v>
       </c>
       <c r="U23" s="18"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="D24" s="12" t="s">
         <v>63</v>
       </c>
       <c r="U24" s="18"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="D25" s="12" t="s">
         <v>64</v>
       </c>
       <c r="U25" s="18"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="U26" s="18"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="C27" t="s">
         <v>41</v>
       </c>
       <c r="U27" s="18"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="D28" s="12" t="s">
         <v>19</v>
       </c>
       <c r="U28" s="18"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="D29" s="12" t="s">
         <v>42</v>
       </c>
       <c r="U29" s="18"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
@@ -1028,32 +1028,32 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" t="s">
         <v>48</v>
       </c>
       <c r="U32" s="18"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" t="s">
         <v>49</v>
       </c>
       <c r="U33" s="18"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" t="s">
         <v>50</v>
       </c>
       <c r="U34" s="18"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="U35" s="9"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>29</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" t="s">
         <v>43</v>
@@ -1069,46 +1069,46 @@
       <c r="C37" s="12"/>
       <c r="U37" s="18"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="C38" s="12" t="s">
         <v>45</v>
       </c>
       <c r="U38" s="18"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="C39" s="12" t="s">
         <v>46</v>
       </c>
       <c r="U39" s="18"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>44</v>
       </c>
       <c r="C40" s="12"/>
       <c r="U40" s="18"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C41" s="12" t="s">
         <v>47</v>
       </c>
       <c r="U41" s="18"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="U43" s="2"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="U44" s="2"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="U46" s="2"/>
     </row>
   </sheetData>
@@ -1131,63 +1131,63 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="3.7109375" customWidth="1"/>
+    <col min="1" max="17" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
     </row>
-    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
     </row>
-    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
     </row>
-    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
     </row>
-    <row r="8" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
     </row>
-    <row r="9" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
     </row>
-    <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
     </row>
-    <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
     </row>
-    <row r="13" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
     </row>
-    <row r="14" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
     </row>
-    <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
     </row>
-    <row r="16" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
@@ -1205,12 +1205,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
@@ -1228,63 +1228,63 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -1302,37 +1302,37 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>24</v>
       </c>
@@ -1350,14 +1350,14 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
     <col min="9" max="9" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>

--- a/skeleton -LU 25.07.2024 (1).xlsx
+++ b/skeleton -LU 25.07.2024 (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shree\Desktop\solar_heyday\heyday3.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD7DC62-E548-46BD-AC3A-CDCB891CB9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A008024-8461-4DA7-8AC9-C9168C57C2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -809,7 +809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0504D71-6005-497C-A674-888E1E52147B}">
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -1128,7 +1128,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1201,9 +1201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C817AEAB-6240-4206-BD55-E9ED4DB2DE6D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1225,7 +1223,7 @@
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1347,7 +1345,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/skeleton -LU 25.07.2024 (1).xlsx
+++ b/skeleton -LU 25.07.2024 (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shree\Desktop\solar_heyday\heyday3.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\heydaysolar3\heyday3.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A008024-8461-4DA7-8AC9-C9168C57C2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496ABA32-90F1-4A70-93DA-1C247A6896AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home page" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>1.Products</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -684,16 +687,16 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="36.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
@@ -706,7 +709,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="36.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="13" t="s">
         <v>17</v>
@@ -715,7 +718,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -732,14 +735,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -756,7 +759,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -771,7 +774,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -784,7 +787,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="2" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>29</v>
       </c>
@@ -809,21 +812,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0504D71-6005-497C-A674-888E1E52147B}">
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A15" zoomScale="62" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="3.6640625" customWidth="1"/>
+    <col min="1" max="2" width="3.7109375" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="48.44140625" customWidth="1"/>
-    <col min="5" max="15" width="3.6640625" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" customWidth="1"/>
-    <col min="21" max="21" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" customWidth="1"/>
+    <col min="5" max="15" width="3.7109375" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -831,38 +834,38 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="U2" s="17"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="C3" s="12" t="s">
         <v>35</v>
       </c>
       <c r="U3" s="17"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="C4" s="12" t="s">
         <v>34</v>
       </c>
       <c r="U4" s="17"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="C5" s="12" t="s">
         <v>33</v>
       </c>
       <c r="U5" s="17"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -871,11 +874,11 @@
       </c>
       <c r="V7" s="10"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="U8" s="18"/>
     </row>
-    <row r="9" spans="1:22" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="C9" t="s">
         <v>32</v>
@@ -885,142 +888,142 @@
       </c>
       <c r="U9" s="18"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="D10" t="s">
         <v>19</v>
       </c>
       <c r="U10" s="18"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="D11" s="12" t="s">
         <v>36</v>
       </c>
       <c r="U11" s="18"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="D12" s="12" t="s">
         <v>37</v>
       </c>
       <c r="U12" s="18"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="D13" s="12" t="s">
         <v>38</v>
       </c>
       <c r="U13" s="18"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="D14" s="12" t="s">
         <v>39</v>
       </c>
       <c r="U14" s="18"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="U15" s="18"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="C16" t="s">
         <v>40</v>
       </c>
       <c r="U16" s="18"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="D17" t="s">
         <v>58</v>
       </c>
       <c r="U17" s="18"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="D18" s="12" t="s">
         <v>59</v>
       </c>
       <c r="U18" s="18"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="D19" s="12" t="s">
         <v>60</v>
       </c>
       <c r="U19" s="18"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="D20" s="12" t="s">
         <v>61</v>
       </c>
       <c r="U20" s="18"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="U21" s="18"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="D22" t="s">
         <v>57</v>
       </c>
       <c r="U22" s="18"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="D23" s="12" t="s">
         <v>62</v>
       </c>
       <c r="U23" s="18"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="D24" s="12" t="s">
         <v>63</v>
       </c>
       <c r="U24" s="18"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="D25" s="12" t="s">
         <v>64</v>
       </c>
       <c r="U25" s="18"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="U26" s="18"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="C27" t="s">
         <v>41</v>
       </c>
       <c r="U27" s="18"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="D28" s="12" t="s">
         <v>19</v>
       </c>
       <c r="U28" s="18"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="D29" s="12" t="s">
         <v>42</v>
       </c>
       <c r="U29" s="18"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
@@ -1028,32 +1031,32 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" t="s">
         <v>48</v>
       </c>
       <c r="U32" s="18"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" t="s">
         <v>49</v>
       </c>
       <c r="U33" s="18"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" t="s">
         <v>50</v>
       </c>
       <c r="U34" s="18"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="U35" s="9"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>29</v>
       </c>
@@ -1061,7 +1064,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" t="s">
         <v>43</v>
@@ -1069,46 +1072,46 @@
       <c r="C37" s="12"/>
       <c r="U37" s="18"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="C38" s="12" t="s">
         <v>45</v>
       </c>
       <c r="U38" s="18"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="C39" s="12" t="s">
         <v>46</v>
       </c>
       <c r="U39" s="18"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>44</v>
       </c>
       <c r="C40" s="12"/>
       <c r="U40" s="18"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C41" s="12" t="s">
         <v>47</v>
       </c>
       <c r="U41" s="18"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U43" s="2"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U44" s="2"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U46" s="2"/>
     </row>
   </sheetData>
@@ -1131,63 +1134,63 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="17" width="3.6640625" customWidth="1"/>
+    <col min="1" max="17" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
     </row>
-    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
     </row>
-    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
     </row>
-    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
     </row>
-    <row r="8" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
     </row>
-    <row r="9" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
     </row>
-    <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
     </row>
-    <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
     </row>
-    <row r="13" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
     </row>
-    <row r="14" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
     </row>
-    <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
     </row>
-    <row r="16" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
@@ -1203,12 +1206,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
@@ -1226,63 +1229,63 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.6640625" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -1294,43 +1297,46 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0248177-4303-4886-A399-459BF40FDCB1}">
-  <dimension ref="B1:B7"/>
+  <dimension ref="B1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>24</v>
       </c>
@@ -1348,14 +1354,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
     <col min="9" max="9" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1366,7 +1372,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>

--- a/skeleton -LU 25.07.2024 (1).xlsx
+++ b/skeleton -LU 25.07.2024 (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\heydaysolar3\heyday3.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shree\Desktop\solar_heyday\heyday3.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496ABA32-90F1-4A70-93DA-1C247A6896AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52710A53-0395-4D6B-9EF4-3FC811E0A405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home page" sheetId="1" r:id="rId1"/>
@@ -687,16 +687,16 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
@@ -709,7 +709,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="36.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
       <c r="B2" s="13" t="s">
         <v>17</v>
@@ -718,7 +718,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -735,14 +735,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -759,7 +759,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -774,7 +774,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -787,7 +787,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="2" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>29</v>
       </c>
@@ -812,21 +812,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0504D71-6005-497C-A674-888E1E52147B}">
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="62" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="3.7109375" customWidth="1"/>
+    <col min="1" max="2" width="3.6640625" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="48.42578125" customWidth="1"/>
-    <col min="5" max="15" width="3.7109375" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="48.44140625" customWidth="1"/>
+    <col min="5" max="15" width="3.6640625" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" customWidth="1"/>
+    <col min="21" max="21" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -834,38 +834,38 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="U2" s="17"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="C3" s="12" t="s">
         <v>35</v>
       </c>
       <c r="U3" s="17"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="C4" s="12" t="s">
         <v>34</v>
       </c>
       <c r="U4" s="17"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="C5" s="12" t="s">
         <v>33</v>
       </c>
       <c r="U5" s="17"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -874,11 +874,11 @@
       </c>
       <c r="V7" s="10"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="U8" s="18"/>
     </row>
-    <row r="9" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="C9" t="s">
         <v>32</v>
@@ -888,142 +888,142 @@
       </c>
       <c r="U9" s="18"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="D10" t="s">
         <v>19</v>
       </c>
       <c r="U10" s="18"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="D11" s="12" t="s">
         <v>36</v>
       </c>
       <c r="U11" s="18"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="D12" s="12" t="s">
         <v>37</v>
       </c>
       <c r="U12" s="18"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="D13" s="12" t="s">
         <v>38</v>
       </c>
       <c r="U13" s="18"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="D14" s="12" t="s">
         <v>39</v>
       </c>
       <c r="U14" s="18"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="U15" s="18"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="C16" t="s">
         <v>40</v>
       </c>
       <c r="U16" s="18"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="D17" t="s">
         <v>58</v>
       </c>
       <c r="U17" s="18"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="D18" s="12" t="s">
         <v>59</v>
       </c>
       <c r="U18" s="18"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="D19" s="12" t="s">
         <v>60</v>
       </c>
       <c r="U19" s="18"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="D20" s="12" t="s">
         <v>61</v>
       </c>
       <c r="U20" s="18"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="U21" s="18"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="D22" t="s">
         <v>57</v>
       </c>
       <c r="U22" s="18"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="D23" s="12" t="s">
         <v>62</v>
       </c>
       <c r="U23" s="18"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="D24" s="12" t="s">
         <v>63</v>
       </c>
       <c r="U24" s="18"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="D25" s="12" t="s">
         <v>64</v>
       </c>
       <c r="U25" s="18"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="U26" s="18"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="C27" t="s">
         <v>41</v>
       </c>
       <c r="U27" s="18"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="D28" s="12" t="s">
         <v>19</v>
       </c>
       <c r="U28" s="18"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="D29" s="12" t="s">
         <v>42</v>
       </c>
       <c r="U29" s="18"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
@@ -1031,32 +1031,32 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" t="s">
         <v>48</v>
       </c>
       <c r="U32" s="18"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" t="s">
         <v>49</v>
       </c>
       <c r="U33" s="18"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" t="s">
         <v>50</v>
       </c>
       <c r="U34" s="18"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="U35" s="9"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>29</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" t="s">
         <v>43</v>
@@ -1072,46 +1072,46 @@
       <c r="C37" s="12"/>
       <c r="U37" s="18"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="C38" s="12" t="s">
         <v>45</v>
       </c>
       <c r="U38" s="18"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="C39" s="12" t="s">
         <v>46</v>
       </c>
       <c r="U39" s="18"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>44</v>
       </c>
       <c r="C40" s="12"/>
       <c r="U40" s="18"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C41" s="12" t="s">
         <v>47</v>
       </c>
       <c r="U41" s="18"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="U43" s="2"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="U44" s="2"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="U46" s="2"/>
     </row>
   </sheetData>
@@ -1134,63 +1134,63 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="3.7109375" customWidth="1"/>
+    <col min="1" max="17" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
     </row>
-    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
     </row>
-    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
     </row>
-    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
     </row>
-    <row r="8" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
     </row>
-    <row r="9" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
     </row>
-    <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
     </row>
-    <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
     </row>
-    <row r="13" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
     </row>
-    <row r="14" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
     </row>
-    <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
     </row>
-    <row r="16" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
@@ -1206,12 +1206,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
@@ -1229,63 +1229,63 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -1299,36 +1299,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0248177-4303-4886-A399-459BF40FDCB1}">
   <dimension ref="B1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>23</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>24</v>
       </c>
@@ -1354,14 +1354,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
     <col min="9" max="9" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
